--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C265EA4-4360-4B36-BB5A-B419E454F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B202BA-49D7-42B3-9904-B792D6969499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Member" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Danh sách tài khoản</t>
   </si>
@@ -36,47 +37,73 @@
     <t>Mật khẩu</t>
   </si>
   <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
     <t>Tên người dùng</t>
   </si>
   <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>member123</t>
+  </si>
+  <si>
+    <t>NV1</t>
+  </si>
+  <si>
+    <t>nv1_Tinh</t>
+  </si>
+  <si>
+    <t>Lê Đức Tính</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>admin123</t>
   </si>
   <si>
-    <t>Kiệt</t>
-  </si>
-  <si>
-    <t>DTN</t>
-  </si>
-  <si>
-    <t>Nga</t>
-  </si>
-  <si>
-    <t>Dntu</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Chức năng</t>
-  </si>
-  <si>
-    <t>member</t>
+    <t>QL1</t>
+  </si>
+  <si>
+    <t>ql1_Kiet</t>
+  </si>
+  <si>
+    <t>Đặng Gia Kiệt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,16 +126,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,81 +421,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="24.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3774E48-0EB9-4EA6-BDC7-D4364AD918DB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2204</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Member" sheetId="1" r:id="rId1"/>
     <sheet name="Admin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Danh sách tài khoản</t>
   </si>
@@ -49,13 +49,10 @@
     <t>member123</t>
   </si>
   <si>
-    <t>NV1</t>
-  </si>
-  <si>
-    <t>nv1_Tinh</t>
-  </si>
-  <si>
-    <t>Lê Đức Tính</t>
+    <t>nv1</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <t>admin</t>
@@ -77,7 +74,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,19 +124,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,65 +428,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="39.95" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -501,65 +501,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" style="5"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="39.95" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B202BA-49D7-42B3-9904-B792D6969499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134EE692-EAC8-4BDE-A2E1-4127781CB4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Danh sách tài khoản</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Tên người dùng</t>
   </si>
   <si>
+    <t>Câu hỏi</t>
+  </si>
+  <si>
+    <t>Đáp án</t>
+  </si>
+  <si>
     <t>member</t>
   </si>
   <si>
@@ -55,6 +61,12 @@
     <t>aaa</t>
   </si>
   <si>
+    <t>Cà phê ngon nhất ở đâu ?</t>
+  </si>
+  <si>
+    <t>Tròn coffee</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -64,10 +76,16 @@
     <t>QL1</t>
   </si>
   <si>
-    <t>ql1_Kiet</t>
+    <t>2204</t>
   </si>
   <si>
     <t>Đặng Gia Kiệt</t>
+  </si>
+  <si>
+    <t>Thú cưng là quý nhất tên gì ?</t>
+  </si>
+  <si>
+    <t>Poppy</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -139,6 +157,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,15 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1" style="7"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.95" customHeight="1">
@@ -438,6 +461,8 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -452,38 +477,56 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -493,17 +536,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3774E48-0EB9-4EA6-BDC7-D4364AD918DB}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" style="5"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="5"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1" style="7"/>
+    <col min="6" max="6" width="23" customWidth="1" style="7"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" style="5"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.95" customHeight="1">
@@ -513,6 +558,8 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -527,38 +574,56 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Danh sách tài khoản</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>nv1</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t>aaa</t>
@@ -515,13 +518,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -583,42 +586,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134EE692-EAC8-4BDE-A2E1-4127781CB4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE3BE1B-FCD1-429D-8365-561C1559AFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
     <sheet name="Admin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Danh sách tài khoản</t>
   </si>
@@ -61,9 +61,6 @@
     <t>1234</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>Cà phê ngon nhất ở đâu ?</t>
   </si>
   <si>
@@ -89,14 +86,16 @@
   </si>
   <si>
     <t>Poppy</t>
+  </si>
+  <si>
+    <t>Lê Đức Tính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,24 +144,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,17 +445,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1" style="7"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1" style="7"/>
+    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.95" customHeight="1">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -467,73 +465,72 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -547,14 +544,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1" style="7"/>
-    <col min="6" max="6" width="23" customWidth="1" style="7"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="5"/>
-    <col min="8" max="16384" width="9.140625" customWidth="1" style="5"/>
+    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.95" customHeight="1">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -564,71 +561,70 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Accounts.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Member" sheetId="1" r:id="rId1"/>
     <sheet name="Admin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Danh sách tài khoản</t>
   </si>
@@ -61,6 +61,9 @@
     <t>1234</t>
   </si>
   <si>
+    <t>Lê Đức Tính</t>
+  </si>
+  <si>
     <t>Cà phê ngon nhất ở đâu ?</t>
   </si>
   <si>
@@ -86,16 +89,14 @@
   </si>
   <si>
     <t>Poppy</t>
-  </si>
-  <si>
-    <t>Lê Đức Tính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,22 +145,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,87 +452,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="5" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1" style="6"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="39.95" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -544,87 +547,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1" style="2"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1" style="6"/>
+    <col min="6" max="6" width="23" customWidth="1" style="6"/>
+    <col min="7" max="8" width="9.140625" customWidth="1" style="5"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="39.95" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>